--- a/01_Documentación/G3_14_Niveles_v3.xlsx
+++ b/01_Documentación/G3_14_Niveles_v3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMUEL\Documents\GitHub\2567_G3_ACSW\01_Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\2567_G3_ACSW\01_Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0D26053-95E6-49F2-A366-B202F22226A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67ED75B-281D-4DA3-BE67-F13F1DC40254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{4997B183-6BA5-427C-8615-A6F9FCD80629}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{4997B183-6BA5-427C-8615-A6F9FCD80629}"/>
   </bookViews>
   <sheets>
     <sheet name="SG_10_LEVEL" sheetId="2" state="hidden" r:id="rId1"/>
@@ -305,6 +305,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -313,9 +316,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -9952,8 +9952,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>707571</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9972,7 +9972,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1739340" y="12241479"/>
-          <a:ext cx="15427431" cy="3364281"/>
+          <a:ext cx="15427431" cy="4119750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -10491,15 +10491,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>508770</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>98565</xdr:rowOff>
+      <xdr:colOff>563199</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>44136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>620486</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>116377</xdr:rowOff>
+      <xdr:colOff>674915</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>61948</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10517,7 +10517,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2076313" y="15828422"/>
+          <a:off x="2130742" y="16699279"/>
           <a:ext cx="15003373" cy="1498269"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -14306,13 +14306,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>310343</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>664029</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14330,8 +14330,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11283143" y="12344400"/>
-          <a:ext cx="3488772" cy="3058886"/>
+          <a:off x="11283143" y="12344399"/>
+          <a:ext cx="3488772" cy="4027715"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -14355,6 +14355,64 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>PM </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC"/>
+            <a:t>Aumentar los canales de contacto mediante la diversificación de redes sociales, correos electrónicos y mensajes de texto, con el objetivo de mejorar la participación de los graduados en el proceso de seguimiento. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" b="1"/>
+            <a:t>¿Qué?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC"/>
+            <a:t> Implementar diversas plataformas de comunicación digital para llegar a un mayor número de egresados. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" b="1"/>
+            <a:t>¿Cuándo?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC"/>
+            <a:t> De manera continua, especialmente durante períodos de actualización de datos o encuestas anuales. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" b="1"/>
+            <a:t>¿Dónde?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC"/>
+            <a:t> A través de las plataformas institucionales en línea, como el portal web de la ESPE, redes sociales oficiales y mediante correos electrónicos institucionales. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" b="1"/>
+            <a:t>¿Cómo?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC"/>
+            <a:t> Mediante campañas de comunicación estructuradas que utilicen mensajes claros y atractivos para motivar la participación activa de los graduados. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" b="1"/>
+            <a:t>Con el fin </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-EC" b="0"/>
+            <a:t>de mantener una base de datos actualizada y fortalecer la conexión institucional con los graduados, asegurando un proceso de seguimiento efectivo y participativo.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+        <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -14372,116 +14430,14 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>PM </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>Aumentar los canales de contacto mediante la diversificación de redes sociales, correos electrónicos y mensajes de texto, con el objetivo de mejorar la participación de los graduados en el proceso de seguimiento. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>¿Qué</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>? Implementar diversas plataformas de comunicación digital para llegar a un mayor número de egresados</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>. ¿Cuándo? </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>De manera continua, especialmente durante períodos de actualización de datos o encuestas anuales. ¿</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>Dónde</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>? A través de las plataformas institucionales en línea, como el portal web de la ESPE, redes sociales oficiales y mediante correos electrónicos institucionales. ¿</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>Cómo? </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-lt"/>
-              <a:cs typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>Mediante campañas de comunicación estructuradas que utilicen mensajes claros y atractivos para motivar la participación activa de los graduados.</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-lt"/>
+            <a:cs typeface="+mn-lt"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16291,78 +16247,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -16461,11 +16417,11 @@
       <c r="V11" s="8"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
@@ -16583,11 +16539,11 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="T20" s="2"/>
@@ -16685,11 +16641,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
@@ -17179,8 +17135,8 @@
       <c r="V57" s="8"/>
     </row>
     <row r="58" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
     </row>
@@ -17209,9 +17165,9 @@
       <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
@@ -17227,12 +17183,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A64:C64"/>
     <mergeCell ref="A1:V3"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A64:C64"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -17248,8 +17204,8 @@
   </sheetPr>
   <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W66" sqref="W66"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W79" sqref="W79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17417,11 +17373,11 @@
       <c r="V11" s="8"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
@@ -17539,11 +17495,11 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="T20" s="2"/>
@@ -17641,11 +17597,11 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
@@ -18026,11 +17982,11 @@
       <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
